--- a/premise_gwp/data/lcia_gwp_100a_w_bio.xlsx
+++ b/premise_gwp/data/lcia_gwp_100a_w_bio.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -573,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C225"/>
+  <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1902,7 +1902,7 @@
         <v>55</v>
       </c>
       <c r="C120">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -1913,7 +1913,7 @@
         <v>51</v>
       </c>
       <c r="C121">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.3">
@@ -1924,7 +1924,7 @@
         <v>52</v>
       </c>
       <c r="C122">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -1935,7 +1935,7 @@
         <v>53</v>
       </c>
       <c r="C123">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -1946,7 +1946,7 @@
         <v>54</v>
       </c>
       <c r="C124">
-        <v>4.3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -1957,18 +1957,18 @@
         <v>54</v>
       </c>
       <c r="C125">
-        <v>4.3</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B126" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C126">
-        <v>29.7</v>
+        <v>2.3545465000000001</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.3">
@@ -1976,7 +1976,7 @@
         <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C127">
         <v>2.3545465000000001</v>
@@ -1987,7 +1987,7 @@
         <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C128">
         <v>2.3545465000000001</v>
@@ -1998,7 +1998,7 @@
         <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C129">
         <v>2.3545465000000001</v>
@@ -2009,7 +2009,7 @@
         <v>28</v>
       </c>
       <c r="B130" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C130">
         <v>2.3545465000000001</v>
@@ -2017,13 +2017,13 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C131">
-        <v>2.3545465000000001</v>
+        <v>1746.48198701</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.3">
@@ -2031,7 +2031,7 @@
         <v>29</v>
       </c>
       <c r="B132" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C132">
         <v>1746.48198701</v>
@@ -2042,7 +2042,7 @@
         <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C133">
         <v>1746.48198701</v>
@@ -2053,7 +2053,7 @@
         <v>29</v>
       </c>
       <c r="B134" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C134">
         <v>1746.48198701</v>
@@ -2064,7 +2064,7 @@
         <v>29</v>
       </c>
       <c r="B135" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C135">
         <v>1746.48198701</v>
@@ -2072,13 +2072,13 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C136">
-        <v>1746.48198701</v>
+        <v>6291.6295759499999</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.3">
@@ -2086,7 +2086,7 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C137">
         <v>6291.6295759499999</v>
@@ -2097,7 +2097,7 @@
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C138">
         <v>6291.6295759499999</v>
@@ -2108,7 +2108,7 @@
         <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C139">
         <v>6291.6295759499999</v>
@@ -2119,7 +2119,7 @@
         <v>30</v>
       </c>
       <c r="B140" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C140">
         <v>6291.6295759499999</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C141">
-        <v>6291.6295759499999</v>
+        <v>1764.6295088100001</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.3">
@@ -2141,7 +2141,7 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C142">
         <v>1764.6295088100001</v>
@@ -2152,7 +2152,7 @@
         <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C143">
         <v>1764.6295088100001</v>
@@ -2163,7 +2163,7 @@
         <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C144">
         <v>1764.6295088100001</v>
@@ -2174,7 +2174,7 @@
         <v>31</v>
       </c>
       <c r="B145" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C145">
         <v>1764.6295088100001</v>
@@ -2182,13 +2182,13 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B146" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C146">
-        <v>1764.6295088100001</v>
+        <v>13893.35260104</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
@@ -2196,7 +2196,7 @@
         <v>32</v>
       </c>
       <c r="B147" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C147">
         <v>13893.35260104</v>
@@ -2207,7 +2207,7 @@
         <v>32</v>
       </c>
       <c r="B148" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C148">
         <v>13893.35260104</v>
@@ -2218,7 +2218,7 @@
         <v>32</v>
       </c>
       <c r="B149" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C149">
         <v>13893.35260104</v>
@@ -2229,7 +2229,7 @@
         <v>32</v>
       </c>
       <c r="B150" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C150">
         <v>13893.35260104</v>
@@ -2237,13 +2237,13 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B151" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C151">
-        <v>13893.35260104</v>
+        <v>8.9151945999999995</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
@@ -2251,7 +2251,7 @@
         <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C152">
         <v>8.9151945999999995</v>
@@ -2262,7 +2262,7 @@
         <v>33</v>
       </c>
       <c r="B153" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C153">
         <v>8.9151945999999995</v>
@@ -2273,7 +2273,7 @@
         <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C154">
         <v>8.9151945999999995</v>
@@ -2284,7 +2284,7 @@
         <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C155">
         <v>8.9151945999999995</v>
@@ -2292,13 +2292,13 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C156">
-        <v>8.9151945999999995</v>
+        <v>10239.234599179999</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
@@ -2306,7 +2306,7 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C157">
         <v>10239.234599179999</v>
@@ -2317,7 +2317,7 @@
         <v>34</v>
       </c>
       <c r="B158" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C158">
         <v>10239.234599179999</v>
@@ -2328,7 +2328,7 @@
         <v>34</v>
       </c>
       <c r="B159" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C159">
         <v>10239.234599179999</v>
@@ -2339,7 +2339,7 @@
         <v>34</v>
       </c>
       <c r="B160" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C160">
         <v>10239.234599179999</v>
@@ -2347,13 +2347,13 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B161" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C161">
-        <v>10239.234599179999</v>
+        <v>147.66224518000001</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.3">
@@ -2361,7 +2361,7 @@
         <v>35</v>
       </c>
       <c r="B162" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C162">
         <v>147.66224518000001</v>
@@ -2372,7 +2372,7 @@
         <v>35</v>
       </c>
       <c r="B163" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C163">
         <v>147.66224518000001</v>
@@ -2383,7 +2383,7 @@
         <v>35</v>
       </c>
       <c r="B164" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C164">
         <v>147.66224518000001</v>
@@ -2394,7 +2394,7 @@
         <v>35</v>
       </c>
       <c r="B165" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C165">
         <v>147.66224518000001</v>
@@ -2402,13 +2402,13 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C166">
-        <v>147.66224518000001</v>
+        <v>676.80778461</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.3">
@@ -2416,7 +2416,7 @@
         <v>36</v>
       </c>
       <c r="B167" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C167">
         <v>676.80778461</v>
@@ -2427,7 +2427,7 @@
         <v>36</v>
       </c>
       <c r="B168" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C168">
         <v>676.80778461</v>
@@ -2438,7 +2438,7 @@
         <v>36</v>
       </c>
       <c r="B169" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C169">
         <v>676.80778461</v>
@@ -2449,7 +2449,7 @@
         <v>36</v>
       </c>
       <c r="B170" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C170">
         <v>676.80778461</v>
@@ -2457,13 +2457,13 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B171" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C171">
-        <v>676.80778461</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.3">
@@ -2471,7 +2471,7 @@
         <v>37</v>
       </c>
       <c r="B172" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C172">
         <v>29.7</v>
@@ -2482,7 +2482,7 @@
         <v>37</v>
       </c>
       <c r="B173" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C173">
         <v>29.7</v>
@@ -2493,7 +2493,7 @@
         <v>37</v>
       </c>
       <c r="B174" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C174">
         <v>29.7</v>
@@ -2504,7 +2504,7 @@
         <v>37</v>
       </c>
       <c r="B175" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C175">
         <v>29.7</v>
@@ -2512,10 +2512,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B176" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C176">
         <v>29.7</v>
@@ -2526,7 +2526,7 @@
         <v>38</v>
       </c>
       <c r="B177" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C177">
         <v>29.7</v>
@@ -2537,7 +2537,7 @@
         <v>38</v>
       </c>
       <c r="B178" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C178">
         <v>29.7</v>
@@ -2548,7 +2548,7 @@
         <v>38</v>
       </c>
       <c r="B179" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C179">
         <v>29.7</v>
@@ -2559,7 +2559,7 @@
         <v>38</v>
       </c>
       <c r="B180" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C180">
         <v>29.7</v>
@@ -2570,7 +2570,7 @@
         <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C181">
         <v>29.7</v>
@@ -2578,13 +2578,13 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B182" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C182">
-        <v>29.7</v>
+        <v>12.18322764</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.3">
@@ -2592,7 +2592,7 @@
         <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C183">
         <v>12.18322764</v>
@@ -2603,7 +2603,7 @@
         <v>39</v>
       </c>
       <c r="B184" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C184">
         <v>12.18322764</v>
@@ -2614,7 +2614,7 @@
         <v>39</v>
       </c>
       <c r="B185" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C185">
         <v>12.18322764</v>
@@ -2625,7 +2625,7 @@
         <v>39</v>
       </c>
       <c r="B186" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C186">
         <v>12.18322764</v>
@@ -2633,13 +2633,13 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B187" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C187">
-        <v>12.18322764</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.3">
@@ -2647,7 +2647,7 @@
         <v>40</v>
       </c>
       <c r="B188" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C188">
         <v>28.5</v>
@@ -2658,7 +2658,7 @@
         <v>40</v>
       </c>
       <c r="B189" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C189">
         <v>28.5</v>
@@ -2669,7 +2669,7 @@
         <v>40</v>
       </c>
       <c r="B190" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C190">
         <v>28.5</v>
@@ -2680,7 +2680,7 @@
         <v>40</v>
       </c>
       <c r="B191" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C191">
         <v>28.5</v>
@@ -2688,13 +2688,13 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B192" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C192">
-        <v>28.5</v>
+        <v>1728.47068126</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.3">
@@ -2702,7 +2702,7 @@
         <v>41</v>
       </c>
       <c r="B193" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C193">
         <v>1728.47068126</v>
@@ -2713,7 +2713,7 @@
         <v>41</v>
       </c>
       <c r="B194" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C194">
         <v>1728.47068126</v>
@@ -2724,7 +2724,7 @@
         <v>41</v>
       </c>
       <c r="B195" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C195">
         <v>1728.47068126</v>
@@ -2735,7 +2735,7 @@
         <v>41</v>
       </c>
       <c r="B196" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C196">
         <v>1728.47068126</v>
@@ -2743,13 +2743,13 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B197" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C197">
-        <v>1728.47068126</v>
+        <v>6625.7804207700001</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.3">
@@ -2757,7 +2757,7 @@
         <v>42</v>
       </c>
       <c r="B198" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C198">
         <v>6625.7804207700001</v>
@@ -2768,7 +2768,7 @@
         <v>42</v>
       </c>
       <c r="B199" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C199">
         <v>6625.7804207700001</v>
@@ -2779,7 +2779,7 @@
         <v>42</v>
       </c>
       <c r="B200" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C200">
         <v>6625.7804207700001</v>
@@ -2790,7 +2790,7 @@
         <v>42</v>
       </c>
       <c r="B201" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C201">
         <v>6625.7804207700001</v>
@@ -2798,13 +2798,13 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B202" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C202">
-        <v>6625.7804207700001</v>
+        <v>4662.9369943800002</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.3">
@@ -2812,7 +2812,7 @@
         <v>43</v>
       </c>
       <c r="B203" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C203">
         <v>4662.9369943800002</v>
@@ -2823,7 +2823,7 @@
         <v>43</v>
       </c>
       <c r="B204" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C204">
         <v>4662.9369943800002</v>
@@ -2834,7 +2834,7 @@
         <v>43</v>
       </c>
       <c r="B205" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C205">
         <v>4662.9369943800002</v>
@@ -2845,7 +2845,7 @@
         <v>43</v>
       </c>
       <c r="B206" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C206">
         <v>4662.9369943800002</v>
@@ -2853,13 +2853,13 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C207">
-        <v>4662.9369943800002</v>
+        <v>12397.60343847</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.3">
@@ -2867,7 +2867,7 @@
         <v>44</v>
       </c>
       <c r="B208" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C208">
         <v>12397.60343847</v>
@@ -2878,7 +2878,7 @@
         <v>44</v>
       </c>
       <c r="B209" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C209">
         <v>12397.60343847</v>
@@ -2889,7 +2889,7 @@
         <v>44</v>
       </c>
       <c r="B210" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C210">
         <v>12397.60343847</v>
@@ -2900,7 +2900,7 @@
         <v>44</v>
       </c>
       <c r="B211" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C211">
         <v>12397.60343847</v>
@@ -2908,24 +2908,24 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B212" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C212">
-        <v>12397.60343847</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B213" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C213">
-        <v>-10.8</v>
+        <v>16069.99763401</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.3">
@@ -2933,7 +2933,7 @@
         <v>46</v>
       </c>
       <c r="B214" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C214">
         <v>16069.99763401</v>
@@ -2944,7 +2944,7 @@
         <v>46</v>
       </c>
       <c r="B215" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C215">
         <v>16069.99763401</v>
@@ -2955,7 +2955,7 @@
         <v>46</v>
       </c>
       <c r="B216" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C216">
         <v>16069.99763401</v>
@@ -2966,7 +2966,7 @@
         <v>46</v>
       </c>
       <c r="B217" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C217">
         <v>16069.99763401</v>
@@ -2974,24 +2974,24 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B218" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C218">
-        <v>16069.99763401</v>
+        <v>8546.7045304599997</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B219" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C219">
-        <v>8546.7045304599997</v>
+        <v>23506.819993159999</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.3">
@@ -2999,7 +2999,7 @@
         <v>48</v>
       </c>
       <c r="B220" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C220">
         <v>23506.819993159999</v>
@@ -3010,7 +3010,7 @@
         <v>48</v>
       </c>
       <c r="B221" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C221">
         <v>23506.819993159999</v>
@@ -3021,7 +3021,7 @@
         <v>48</v>
       </c>
       <c r="B222" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C222">
         <v>23506.819993159999</v>
@@ -3032,7 +3032,7 @@
         <v>48</v>
       </c>
       <c r="B223" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C223">
         <v>23506.819993159999</v>
@@ -3040,23 +3040,12 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B224" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C224">
-        <v>23506.819993159999</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>49</v>
-      </c>
-      <c r="B225" t="s">
-        <v>53</v>
-      </c>
-      <c r="C225">
         <v>4.5</v>
       </c>
     </row>

--- a/premise_gwp/data/lcia_gwp_100a_w_bio.xlsx
+++ b/premise_gwp/data/lcia_gwp_100a_w_bio.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sacchi_r\Documents\GitHub\premise_gwp\premise_gwp\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise_gwp/premise_gwp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D88C3D1-6AFA-7C4E-8DD9-8C0DC8D7BEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="13500"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="5"/>
+  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="10" calcCompleted="0" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -218,7 +219,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -572,20 +573,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B112" sqref="B112"/>
+      <selection activeCell="B121" sqref="B121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="44.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -607,7 +608,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -618,7 +619,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -629,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -640,7 +641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -651,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -662,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -673,7 +674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -684,7 +685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -695,7 +696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -706,7 +707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -717,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -728,7 +729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -739,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -750,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -761,7 +762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -772,7 +773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -783,7 +784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -794,7 +795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -805,7 +806,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -816,7 +817,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>7</v>
       </c>
@@ -827,7 +828,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>7</v>
       </c>
@@ -838,7 +839,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -849,7 +850,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -860,7 +861,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>8</v>
       </c>
@@ -871,7 +872,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -882,7 +883,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -893,7 +894,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -904,7 +905,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -915,7 +916,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -926,7 +927,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>9</v>
       </c>
@@ -937,7 +938,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>9</v>
       </c>
@@ -948,7 +949,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>9</v>
       </c>
@@ -959,7 +960,7 @@
         <v>4.0624000000000002</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -970,7 +971,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -981,7 +982,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -992,7 +993,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1003,7 +1004,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -1014,7 +1015,7 @@
         <v>2.4910000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>11</v>
       </c>
@@ -1025,7 +1026,7 @@
         <v>16.40180896</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>11</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>16.40180896</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>11</v>
       </c>
@@ -1047,7 +1048,7 @@
         <v>16.40180896</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>11</v>
       </c>
@@ -1058,7 +1059,7 @@
         <v>16.40180896</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>11</v>
       </c>
@@ -1069,7 +1070,7 @@
         <v>16.40180896</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -1080,7 +1081,7 @@
         <v>264.8</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -1091,7 +1092,7 @@
         <v>264.8</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>264.8</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>264.8</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -1124,7 +1125,7 @@
         <v>264.8</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1135,7 +1136,7 @@
         <v>1301.2701999599999</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -1146,7 +1147,7 @@
         <v>1301.2701999599999</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -1157,7 +1158,7 @@
         <v>1301.2701999599999</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>13</v>
       </c>
@@ -1168,7 +1169,7 @@
         <v>1301.2701999599999</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>13</v>
       </c>
@@ -1179,7 +1180,7 @@
         <v>1301.2701999599999</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -1190,7 +1191,7 @@
         <v>160.09863099</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -1201,7 +1202,7 @@
         <v>160.09863099</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -1212,7 +1213,7 @@
         <v>160.09863099</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -1223,7 +1224,7 @@
         <v>160.09863099</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>14</v>
       </c>
@@ -1234,7 +1235,7 @@
         <v>160.09863099</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>4804.43907777</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -1256,7 +1257,7 @@
         <v>4804.43907777</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -1267,7 +1268,7 @@
         <v>4804.43907777</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -1278,7 +1279,7 @@
         <v>4804.43907777</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>15</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>4804.43907777</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>16</v>
       </c>
@@ -1300,7 +1301,7 @@
         <v>5823.7261870100001</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>16</v>
       </c>
@@ -1311,7 +1312,7 @@
         <v>5823.7261870100001</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>16</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>5823.7261870100001</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>16</v>
       </c>
@@ -1333,7 +1334,7 @@
         <v>5823.7261870100001</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>16</v>
       </c>
@@ -1344,7 +1345,7 @@
         <v>5823.7261870100001</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>17</v>
       </c>
@@ -1355,7 +1356,7 @@
         <v>782.03725985999995</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1367,7 @@
         <v>782.03725985999995</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>17</v>
       </c>
@@ -1377,7 +1378,7 @@
         <v>782.03725985999995</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>17</v>
       </c>
@@ -1388,7 +1389,7 @@
         <v>782.03725985999995</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>17</v>
       </c>
@@ -1399,7 +1400,7 @@
         <v>782.03725985999995</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>18</v>
       </c>
@@ -1410,7 +1411,7 @@
         <v>137.56020393</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>18</v>
       </c>
@@ -1421,7 +1422,7 @@
         <v>137.56020393</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1433,7 @@
         <v>137.56020393</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>18</v>
       </c>
@@ -1443,7 +1444,7 @@
         <v>137.56020393</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>18</v>
       </c>
@@ -1454,7 +1455,7 @@
         <v>137.56020393</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>19</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>0.89826216999999997</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>19</v>
       </c>
@@ -1476,7 +1477,7 @@
         <v>0.89826216999999997</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>19</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>0.89826216999999997</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>19</v>
       </c>
@@ -1498,7 +1499,7 @@
         <v>0.89826216999999997</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>19</v>
       </c>
@@ -1509,7 +1510,7 @@
         <v>0.89826216999999997</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>20</v>
       </c>
@@ -1520,7 +1521,7 @@
         <v>8592.2020844899998</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>20</v>
       </c>
@@ -1531,7 +1532,7 @@
         <v>8592.2020844899998</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>20</v>
       </c>
@@ -1542,7 +1543,7 @@
         <v>8592.2020844899998</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>20</v>
       </c>
@@ -1553,7 +1554,7 @@
         <v>8592.2020844899998</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>20</v>
       </c>
@@ -1564,7 +1565,7 @@
         <v>8592.2020844899998</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1576,7 @@
         <v>1982.0354626599999</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>21</v>
       </c>
@@ -1586,7 +1587,7 @@
         <v>1982.0354626599999</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>21</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>1982.0354626599999</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>21</v>
       </c>
@@ -1608,7 +1609,7 @@
         <v>1982.0354626599999</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>21</v>
       </c>
@@ -1619,7 +1620,7 @@
         <v>1982.0354626599999</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>22</v>
       </c>
@@ -1630,7 +1631,7 @@
         <v>79.367176749999999</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>22</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>79.367176749999999</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -1652,7 +1653,7 @@
         <v>79.367176749999999</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>22</v>
       </c>
@@ -1663,7 +1664,7 @@
         <v>79.367176749999999</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>22</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>79.367176749999999</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>23</v>
       </c>
@@ -1685,7 +1686,7 @@
         <v>526.54777691000004</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>23</v>
       </c>
@@ -1696,7 +1697,7 @@
         <v>526.54777691000004</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>23</v>
       </c>
@@ -1707,7 +1708,7 @@
         <v>526.54777691000004</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>23</v>
       </c>
@@ -1718,7 +1719,7 @@
         <v>526.54777691000004</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +1730,7 @@
         <v>526.54777691000004</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -1740,7 +1741,7 @@
         <v>7665.36131656</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>24</v>
       </c>
@@ -1751,7 +1752,7 @@
         <v>7665.36131656</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>24</v>
       </c>
@@ -1762,7 +1763,7 @@
         <v>7665.36131656</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>24</v>
       </c>
@@ -1773,7 +1774,7 @@
         <v>7665.36131656</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>24</v>
       </c>
@@ -1784,7 +1785,7 @@
         <v>7665.36131656</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -1795,7 +1796,7 @@
         <v>11123.49391992</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -1806,7 +1807,7 @@
         <v>11123.49391992</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -1817,7 +1818,7 @@
         <v>11123.49391992</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>11123.49391992</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -1839,7 +1840,7 @@
         <v>11123.49391992</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>26</v>
       </c>
@@ -1850,7 +1851,7 @@
         <v>3169.2551762200001</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>26</v>
       </c>
@@ -1861,7 +1862,7 @@
         <v>3169.2551762200001</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>26</v>
       </c>
@@ -1872,7 +1873,7 @@
         <v>3169.2551762200001</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>26</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>3169.2551762200001</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>26</v>
       </c>
@@ -1894,7 +1895,7 @@
         <v>3169.2551762200001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>62</v>
       </c>
@@ -1902,10 +1903,10 @@
         <v>55</v>
       </c>
       <c r="C120">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>62</v>
       </c>
@@ -1913,10 +1914,10 @@
         <v>51</v>
       </c>
       <c r="C121">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>62</v>
       </c>
@@ -1924,10 +1925,10 @@
         <v>52</v>
       </c>
       <c r="C122">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>62</v>
       </c>
@@ -1935,10 +1936,10 @@
         <v>53</v>
       </c>
       <c r="C123">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>62</v>
       </c>
@@ -1946,10 +1947,10 @@
         <v>54</v>
       </c>
       <c r="C124">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>27</v>
       </c>
@@ -1960,7 +1961,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>28</v>
       </c>
@@ -1971,7 +1972,7 @@
         <v>2.3545465000000001</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>28</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>2.3545465000000001</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>28</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>2.3545465000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>28</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>2.3545465000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>28</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>2.3545465000000001</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>29</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>1746.48198701</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>29</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>1746.48198701</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>29</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>1746.48198701</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>29</v>
       </c>
@@ -2059,7 +2060,7 @@
         <v>1746.48198701</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>29</v>
       </c>
@@ -2070,7 +2071,7 @@
         <v>1746.48198701</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>30</v>
       </c>
@@ -2081,7 +2082,7 @@
         <v>6291.6295759499999</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>30</v>
       </c>
@@ -2092,7 +2093,7 @@
         <v>6291.6295759499999</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>30</v>
       </c>
@@ -2103,7 +2104,7 @@
         <v>6291.6295759499999</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>30</v>
       </c>
@@ -2114,7 +2115,7 @@
         <v>6291.6295759499999</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>30</v>
       </c>
@@ -2125,7 +2126,7 @@
         <v>6291.6295759499999</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>31</v>
       </c>
@@ -2136,7 +2137,7 @@
         <v>1764.6295088100001</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>31</v>
       </c>
@@ -2147,7 +2148,7 @@
         <v>1764.6295088100001</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>31</v>
       </c>
@@ -2158,7 +2159,7 @@
         <v>1764.6295088100001</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>31</v>
       </c>
@@ -2169,7 +2170,7 @@
         <v>1764.6295088100001</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>31</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>1764.6295088100001</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>32</v>
       </c>
@@ -2191,7 +2192,7 @@
         <v>13893.35260104</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>32</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>13893.35260104</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>32</v>
       </c>
@@ -2213,7 +2214,7 @@
         <v>13893.35260104</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>32</v>
       </c>
@@ -2224,7 +2225,7 @@
         <v>13893.35260104</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>32</v>
       </c>
@@ -2235,7 +2236,7 @@
         <v>13893.35260104</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>33</v>
       </c>
@@ -2246,7 +2247,7 @@
         <v>8.9151945999999995</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>33</v>
       </c>
@@ -2257,7 +2258,7 @@
         <v>8.9151945999999995</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>33</v>
       </c>
@@ -2268,7 +2269,7 @@
         <v>8.9151945999999995</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>33</v>
       </c>
@@ -2279,7 +2280,7 @@
         <v>8.9151945999999995</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>33</v>
       </c>
@@ -2290,7 +2291,7 @@
         <v>8.9151945999999995</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>34</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>10239.234599179999</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>34</v>
       </c>
@@ -2312,7 +2313,7 @@
         <v>10239.234599179999</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>34</v>
       </c>
@@ -2323,7 +2324,7 @@
         <v>10239.234599179999</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>34</v>
       </c>
@@ -2334,7 +2335,7 @@
         <v>10239.234599179999</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>34</v>
       </c>
@@ -2345,7 +2346,7 @@
         <v>10239.234599179999</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>35</v>
       </c>
@@ -2356,7 +2357,7 @@
         <v>147.66224518000001</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>35</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>147.66224518000001</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>35</v>
       </c>
@@ -2378,7 +2379,7 @@
         <v>147.66224518000001</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>35</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>147.66224518000001</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>35</v>
       </c>
@@ -2400,7 +2401,7 @@
         <v>147.66224518000001</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>36</v>
       </c>
@@ -2411,7 +2412,7 @@
         <v>676.80778461</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>36</v>
       </c>
@@ -2422,7 +2423,7 @@
         <v>676.80778461</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>36</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>676.80778461</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>36</v>
       </c>
@@ -2444,7 +2445,7 @@
         <v>676.80778461</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>36</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>676.80778461</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>37</v>
       </c>
@@ -2466,7 +2467,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>37</v>
       </c>
@@ -2477,7 +2478,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>37</v>
       </c>
@@ -2488,7 +2489,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>37</v>
       </c>
@@ -2499,7 +2500,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>37</v>
       </c>
@@ -2510,7 +2511,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>38</v>
       </c>
@@ -2521,7 +2522,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>38</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>38</v>
       </c>
@@ -2543,7 +2544,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>38</v>
       </c>
@@ -2554,7 +2555,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>38</v>
       </c>
@@ -2565,7 +2566,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>38</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>29.7</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>39</v>
       </c>
@@ -2587,7 +2588,7 @@
         <v>12.18322764</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>39</v>
       </c>
@@ -2598,7 +2599,7 @@
         <v>12.18322764</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>39</v>
       </c>
@@ -2609,7 +2610,7 @@
         <v>12.18322764</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>39</v>
       </c>
@@ -2620,7 +2621,7 @@
         <v>12.18322764</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>39</v>
       </c>
@@ -2631,7 +2632,7 @@
         <v>12.18322764</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>40</v>
       </c>
@@ -2642,7 +2643,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>40</v>
       </c>
@@ -2653,7 +2654,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>40</v>
       </c>
@@ -2664,7 +2665,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>40</v>
       </c>
@@ -2675,7 +2676,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>40</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>41</v>
       </c>
@@ -2697,7 +2698,7 @@
         <v>1728.47068126</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>41</v>
       </c>
@@ -2708,7 +2709,7 @@
         <v>1728.47068126</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>41</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>1728.47068126</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>41</v>
       </c>
@@ -2730,7 +2731,7 @@
         <v>1728.47068126</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>41</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>1728.47068126</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>42</v>
       </c>
@@ -2752,7 +2753,7 @@
         <v>6625.7804207700001</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>42</v>
       </c>
@@ -2763,7 +2764,7 @@
         <v>6625.7804207700001</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>42</v>
       </c>
@@ -2774,7 +2775,7 @@
         <v>6625.7804207700001</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>42</v>
       </c>
@@ -2785,7 +2786,7 @@
         <v>6625.7804207700001</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>42</v>
       </c>
@@ -2796,7 +2797,7 @@
         <v>6625.7804207700001</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>43</v>
       </c>
@@ -2807,7 +2808,7 @@
         <v>4662.9369943800002</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>43</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>4662.9369943800002</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>43</v>
       </c>
@@ -2829,7 +2830,7 @@
         <v>4662.9369943800002</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>43</v>
       </c>
@@ -2840,7 +2841,7 @@
         <v>4662.9369943800002</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>43</v>
       </c>
@@ -2851,7 +2852,7 @@
         <v>4662.9369943800002</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>44</v>
       </c>
@@ -2862,7 +2863,7 @@
         <v>12397.60343847</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>44</v>
       </c>
@@ -2873,7 +2874,7 @@
         <v>12397.60343847</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>44</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>12397.60343847</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>44</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>12397.60343847</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>44</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>12397.60343847</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>45</v>
       </c>
@@ -2917,7 +2918,7 @@
         <v>-10.8</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>46</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>16069.99763401</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>46</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>16069.99763401</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>46</v>
       </c>
@@ -2950,7 +2951,7 @@
         <v>16069.99763401</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>46</v>
       </c>
@@ -2961,7 +2962,7 @@
         <v>16069.99763401</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>46</v>
       </c>
@@ -2972,7 +2973,7 @@
         <v>16069.99763401</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>47</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>8546.7045304599997</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>48</v>
       </c>
@@ -2994,7 +2995,7 @@
         <v>23506.819993159999</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>48</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>23506.819993159999</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>48</v>
       </c>
@@ -3016,7 +3017,7 @@
         <v>23506.819993159999</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>48</v>
       </c>
@@ -3027,7 +3028,7 @@
         <v>23506.819993159999</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>48</v>
       </c>
@@ -3038,7 +3039,7 @@
         <v>23506.819993159999</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>49</v>
       </c>

--- a/premise_gwp/data/lcia_gwp_100a_w_bio.xlsx
+++ b/premise_gwp/data/lcia_gwp_100a_w_bio.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise_gwp/premise_gwp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D88C3D1-6AFA-7C4E-8DD9-8C0DC8D7BEB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61143247-7915-6542-BE97-38EA33AB56BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual" iterate="1" iterateCount="10" calcCompleted="0" calcOnSave="0"/>
+  <calcPr calcId="162913" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="63">
   <si>
     <t>name</t>
   </si>
@@ -574,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C224"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="B121" sqref="B121"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,10 +665,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -679,7 +679,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -690,7 +690,7 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -701,7 +701,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -712,7 +712,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -720,10 +720,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -734,7 +734,7 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -745,7 +745,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -756,7 +756,7 @@
         <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C16">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C17">
         <v>1</v>
@@ -778,7 +778,7 @@
         <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C18">
         <v>1</v>
@@ -786,13 +786,13 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
@@ -800,7 +800,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C20">
         <v>-1</v>
@@ -811,7 +811,7 @@
         <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>-1</v>
@@ -822,7 +822,7 @@
         <v>7</v>
       </c>
       <c r="B22" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>-1</v>
@@ -830,13 +830,13 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C23">
-        <v>-1</v>
+        <v>4.0624000000000002</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
@@ -844,7 +844,7 @@
         <v>8</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C24">
         <v>4.0624000000000002</v>
@@ -855,7 +855,7 @@
         <v>8</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C25">
         <v>4.0624000000000002</v>
@@ -866,7 +866,7 @@
         <v>8</v>
       </c>
       <c r="B26" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C26">
         <v>4.0624000000000002</v>
@@ -877,7 +877,7 @@
         <v>8</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C27">
         <v>4.0624000000000002</v>
@@ -885,10 +885,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C28">
         <v>4.0624000000000002</v>
@@ -899,7 +899,7 @@
         <v>9</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>4.0624000000000002</v>
@@ -910,7 +910,7 @@
         <v>9</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C30">
         <v>4.0624000000000002</v>
@@ -921,7 +921,7 @@
         <v>9</v>
       </c>
       <c r="B31" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C31">
         <v>4.0624000000000002</v>
@@ -932,7 +932,7 @@
         <v>9</v>
       </c>
       <c r="B32" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C32">
         <v>4.0624000000000002</v>
@@ -943,7 +943,7 @@
         <v>9</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C33">
         <v>4.0624000000000002</v>
@@ -951,13 +951,13 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C34">
-        <v>4.0624000000000002</v>
+        <v>2.4910000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
@@ -965,7 +965,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C35">
         <v>2.4910000000000001</v>
@@ -976,7 +976,7 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C36">
         <v>2.4910000000000001</v>
@@ -987,7 +987,7 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C37">
         <v>2.4910000000000001</v>
@@ -998,7 +998,7 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C38">
         <v>2.4910000000000001</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C39">
-        <v>2.4910000000000001</v>
+        <v>16.40180896</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -1020,7 +1020,7 @@
         <v>11</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C40">
         <v>16.40180896</v>
@@ -1031,7 +1031,7 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C41">
         <v>16.40180896</v>
@@ -1042,7 +1042,7 @@
         <v>11</v>
       </c>
       <c r="B42" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C42">
         <v>16.40180896</v>
@@ -1053,7 +1053,7 @@
         <v>11</v>
       </c>
       <c r="B43" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C43">
         <v>16.40180896</v>
@@ -1061,13 +1061,13 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C44">
-        <v>16.40180896</v>
+        <v>264.8</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>12</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C45">
         <v>264.8</v>
@@ -1086,7 +1086,7 @@
         <v>12</v>
       </c>
       <c r="B46" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>264.8</v>
@@ -1097,7 +1097,7 @@
         <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C47">
         <v>264.8</v>
@@ -1108,7 +1108,7 @@
         <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C48">
         <v>264.8</v>
@@ -1116,13 +1116,13 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B49" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C49">
-        <v>264.8</v>
+        <v>1301.2701999599999</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -1130,7 +1130,7 @@
         <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C50">
         <v>1301.2701999599999</v>
@@ -1141,7 +1141,7 @@
         <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C51">
         <v>1301.2701999599999</v>
@@ -1152,7 +1152,7 @@
         <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C52">
         <v>1301.2701999599999</v>
@@ -1163,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="B53" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>1301.2701999599999</v>
@@ -1171,13 +1171,13 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C54">
-        <v>1301.2701999599999</v>
+        <v>160.09863099</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -1185,7 +1185,7 @@
         <v>14</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C55">
         <v>160.09863099</v>
@@ -1196,7 +1196,7 @@
         <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C56">
         <v>160.09863099</v>
@@ -1207,7 +1207,7 @@
         <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C57">
         <v>160.09863099</v>
@@ -1218,7 +1218,7 @@
         <v>14</v>
       </c>
       <c r="B58" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C58">
         <v>160.09863099</v>
@@ -1226,13 +1226,13 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B59" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C59">
-        <v>160.09863099</v>
+        <v>4804.43907777</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -1240,7 +1240,7 @@
         <v>15</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C60">
         <v>4804.43907777</v>
@@ -1251,7 +1251,7 @@
         <v>15</v>
       </c>
       <c r="B61" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C61">
         <v>4804.43907777</v>
@@ -1262,7 +1262,7 @@
         <v>15</v>
       </c>
       <c r="B62" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C62">
         <v>4804.43907777</v>
@@ -1273,7 +1273,7 @@
         <v>15</v>
       </c>
       <c r="B63" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C63">
         <v>4804.43907777</v>
@@ -1281,13 +1281,13 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C64">
-        <v>4804.43907777</v>
+        <v>5823.7261870100001</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -1295,7 +1295,7 @@
         <v>16</v>
       </c>
       <c r="B65" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C65">
         <v>5823.7261870100001</v>
@@ -1306,7 +1306,7 @@
         <v>16</v>
       </c>
       <c r="B66" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C66">
         <v>5823.7261870100001</v>
@@ -1317,7 +1317,7 @@
         <v>16</v>
       </c>
       <c r="B67" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C67">
         <v>5823.7261870100001</v>
@@ -1328,7 +1328,7 @@
         <v>16</v>
       </c>
       <c r="B68" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C68">
         <v>5823.7261870100001</v>
@@ -1336,13 +1336,13 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C69">
-        <v>5823.7261870100001</v>
+        <v>782.03725985999995</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -1350,7 +1350,7 @@
         <v>17</v>
       </c>
       <c r="B70" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C70">
         <v>782.03725985999995</v>
@@ -1361,7 +1361,7 @@
         <v>17</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C71">
         <v>782.03725985999995</v>
@@ -1372,7 +1372,7 @@
         <v>17</v>
       </c>
       <c r="B72" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C72">
         <v>782.03725985999995</v>
@@ -1383,7 +1383,7 @@
         <v>17</v>
       </c>
       <c r="B73" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C73">
         <v>782.03725985999995</v>
@@ -1391,13 +1391,13 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C74">
-        <v>782.03725985999995</v>
+        <v>137.56020393</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -1405,7 +1405,7 @@
         <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C75">
         <v>137.56020393</v>
@@ -1416,7 +1416,7 @@
         <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C76">
         <v>137.56020393</v>
@@ -1427,7 +1427,7 @@
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C77">
         <v>137.56020393</v>
@@ -1438,7 +1438,7 @@
         <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C78">
         <v>137.56020393</v>
@@ -1446,13 +1446,13 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B79" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C79">
-        <v>137.56020393</v>
+        <v>0.89826216999999997</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -1460,7 +1460,7 @@
         <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C80">
         <v>0.89826216999999997</v>
@@ -1471,7 +1471,7 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C81">
         <v>0.89826216999999997</v>
@@ -1482,7 +1482,7 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C82">
         <v>0.89826216999999997</v>
@@ -1493,7 +1493,7 @@
         <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C83">
         <v>0.89826216999999997</v>
@@ -1501,13 +1501,13 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B84" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C84">
-        <v>0.89826216999999997</v>
+        <v>8592.2020844899998</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
@@ -1515,7 +1515,7 @@
         <v>20</v>
       </c>
       <c r="B85" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C85">
         <v>8592.2020844899998</v>
@@ -1526,7 +1526,7 @@
         <v>20</v>
       </c>
       <c r="B86" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C86">
         <v>8592.2020844899998</v>
@@ -1537,7 +1537,7 @@
         <v>20</v>
       </c>
       <c r="B87" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C87">
         <v>8592.2020844899998</v>
@@ -1548,7 +1548,7 @@
         <v>20</v>
       </c>
       <c r="B88" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C88">
         <v>8592.2020844899998</v>
@@ -1556,13 +1556,13 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B89" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C89">
-        <v>8592.2020844899998</v>
+        <v>1982.0354626599999</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -1570,7 +1570,7 @@
         <v>21</v>
       </c>
       <c r="B90" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C90">
         <v>1982.0354626599999</v>
@@ -1581,7 +1581,7 @@
         <v>21</v>
       </c>
       <c r="B91" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C91">
         <v>1982.0354626599999</v>
@@ -1592,7 +1592,7 @@
         <v>21</v>
       </c>
       <c r="B92" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C92">
         <v>1982.0354626599999</v>
@@ -1603,7 +1603,7 @@
         <v>21</v>
       </c>
       <c r="B93" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C93">
         <v>1982.0354626599999</v>
@@ -1611,13 +1611,13 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C94">
-        <v>1982.0354626599999</v>
+        <v>79.367176749999999</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -1625,7 +1625,7 @@
         <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C95">
         <v>79.367176749999999</v>
@@ -1636,7 +1636,7 @@
         <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C96">
         <v>79.367176749999999</v>
@@ -1647,7 +1647,7 @@
         <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C97">
         <v>79.367176749999999</v>
@@ -1658,7 +1658,7 @@
         <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C98">
         <v>79.367176749999999</v>
@@ -1666,13 +1666,13 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B99" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C99">
-        <v>79.367176749999999</v>
+        <v>526.54777691000004</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -1680,7 +1680,7 @@
         <v>23</v>
       </c>
       <c r="B100" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C100">
         <v>526.54777691000004</v>
@@ -1691,7 +1691,7 @@
         <v>23</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C101">
         <v>526.54777691000004</v>
@@ -1702,7 +1702,7 @@
         <v>23</v>
       </c>
       <c r="B102" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C102">
         <v>526.54777691000004</v>
@@ -1713,7 +1713,7 @@
         <v>23</v>
       </c>
       <c r="B103" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C103">
         <v>526.54777691000004</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B104" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C104">
-        <v>526.54777691000004</v>
+        <v>7665.36131656</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -1735,7 +1735,7 @@
         <v>24</v>
       </c>
       <c r="B105" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C105">
         <v>7665.36131656</v>
@@ -1746,7 +1746,7 @@
         <v>24</v>
       </c>
       <c r="B106" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C106">
         <v>7665.36131656</v>
@@ -1757,7 +1757,7 @@
         <v>24</v>
       </c>
       <c r="B107" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C107">
         <v>7665.36131656</v>
@@ -1768,7 +1768,7 @@
         <v>24</v>
       </c>
       <c r="B108" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C108">
         <v>7665.36131656</v>
@@ -1776,13 +1776,13 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B109" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C109">
-        <v>7665.36131656</v>
+        <v>11123.49391992</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -1790,7 +1790,7 @@
         <v>25</v>
       </c>
       <c r="B110" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C110">
         <v>11123.49391992</v>
@@ -1801,7 +1801,7 @@
         <v>25</v>
       </c>
       <c r="B111" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C111">
         <v>11123.49391992</v>
@@ -1812,7 +1812,7 @@
         <v>25</v>
       </c>
       <c r="B112" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C112">
         <v>11123.49391992</v>
@@ -1823,7 +1823,7 @@
         <v>25</v>
       </c>
       <c r="B113" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C113">
         <v>11123.49391992</v>
@@ -1831,13 +1831,13 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B114" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C114">
-        <v>11123.49391992</v>
+        <v>3169.2551762200001</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -1845,7 +1845,7 @@
         <v>26</v>
       </c>
       <c r="B115" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C115">
         <v>3169.2551762200001</v>
@@ -1856,7 +1856,7 @@
         <v>26</v>
       </c>
       <c r="B116" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C116">
         <v>3169.2551762200001</v>
@@ -1867,7 +1867,7 @@
         <v>26</v>
       </c>
       <c r="B117" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C117">
         <v>3169.2551762200001</v>
@@ -1878,7 +1878,7 @@
         <v>26</v>
       </c>
       <c r="B118" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C118">
         <v>3169.2551762200001</v>
@@ -1886,13 +1886,13 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="B119" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C119">
-        <v>3169.2551762200001</v>
+        <v>11</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -1900,7 +1900,7 @@
         <v>62</v>
       </c>
       <c r="B120" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C120">
         <v>11</v>
@@ -1911,7 +1911,7 @@
         <v>62</v>
       </c>
       <c r="B121" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C121">
         <v>11</v>
@@ -1922,7 +1922,7 @@
         <v>62</v>
       </c>
       <c r="B122" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C122">
         <v>11</v>
@@ -1933,7 +1933,7 @@
         <v>62</v>
       </c>
       <c r="B123" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C123">
         <v>11</v>
@@ -1941,24 +1941,24 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="B124" t="s">
         <v>54</v>
       </c>
       <c r="C124">
-        <v>11</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B125" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C125">
-        <v>29.7</v>
+        <v>2.3545465000000001</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -1966,7 +1966,7 @@
         <v>28</v>
       </c>
       <c r="B126" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C126">
         <v>2.3545465000000001</v>
@@ -1977,7 +1977,7 @@
         <v>28</v>
       </c>
       <c r="B127" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C127">
         <v>2.3545465000000001</v>
@@ -1988,7 +1988,7 @@
         <v>28</v>
       </c>
       <c r="B128" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C128">
         <v>2.3545465000000001</v>
@@ -1999,7 +1999,7 @@
         <v>28</v>
       </c>
       <c r="B129" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C129">
         <v>2.3545465000000001</v>
@@ -2007,13 +2007,13 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B130" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C130">
-        <v>2.3545465000000001</v>
+        <v>1746.48198701</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -2021,7 +2021,7 @@
         <v>29</v>
       </c>
       <c r="B131" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C131">
         <v>1746.48198701</v>
@@ -2032,7 +2032,7 @@
         <v>29</v>
       </c>
       <c r="B132" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C132">
         <v>1746.48198701</v>
@@ -2043,7 +2043,7 @@
         <v>29</v>
       </c>
       <c r="B133" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C133">
         <v>1746.48198701</v>
@@ -2054,7 +2054,7 @@
         <v>29</v>
       </c>
       <c r="B134" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C134">
         <v>1746.48198701</v>
@@ -2062,13 +2062,13 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B135" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C135">
-        <v>1746.48198701</v>
+        <v>6291.6295759499999</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -2076,7 +2076,7 @@
         <v>30</v>
       </c>
       <c r="B136" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C136">
         <v>6291.6295759499999</v>
@@ -2087,7 +2087,7 @@
         <v>30</v>
       </c>
       <c r="B137" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C137">
         <v>6291.6295759499999</v>
@@ -2098,7 +2098,7 @@
         <v>30</v>
       </c>
       <c r="B138" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C138">
         <v>6291.6295759499999</v>
@@ -2109,7 +2109,7 @@
         <v>30</v>
       </c>
       <c r="B139" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C139">
         <v>6291.6295759499999</v>
@@ -2117,13 +2117,13 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B140" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C140">
-        <v>6291.6295759499999</v>
+        <v>1764.6295088100001</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
@@ -2131,7 +2131,7 @@
         <v>31</v>
       </c>
       <c r="B141" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C141">
         <v>1764.6295088100001</v>
@@ -2142,7 +2142,7 @@
         <v>31</v>
       </c>
       <c r="B142" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C142">
         <v>1764.6295088100001</v>
@@ -2153,7 +2153,7 @@
         <v>31</v>
       </c>
       <c r="B143" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C143">
         <v>1764.6295088100001</v>
@@ -2164,7 +2164,7 @@
         <v>31</v>
       </c>
       <c r="B144" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C144">
         <v>1764.6295088100001</v>
@@ -2172,13 +2172,13 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B145" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C145">
-        <v>1764.6295088100001</v>
+        <v>13893.35260104</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -2186,7 +2186,7 @@
         <v>32</v>
       </c>
       <c r="B146" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C146">
         <v>13893.35260104</v>
@@ -2197,7 +2197,7 @@
         <v>32</v>
       </c>
       <c r="B147" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C147">
         <v>13893.35260104</v>
@@ -2208,7 +2208,7 @@
         <v>32</v>
       </c>
       <c r="B148" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C148">
         <v>13893.35260104</v>
@@ -2219,7 +2219,7 @@
         <v>32</v>
       </c>
       <c r="B149" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C149">
         <v>13893.35260104</v>
@@ -2227,13 +2227,13 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B150" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C150">
-        <v>13893.35260104</v>
+        <v>8.9151945999999995</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -2241,7 +2241,7 @@
         <v>33</v>
       </c>
       <c r="B151" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C151">
         <v>8.9151945999999995</v>
@@ -2252,7 +2252,7 @@
         <v>33</v>
       </c>
       <c r="B152" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C152">
         <v>8.9151945999999995</v>
@@ -2263,7 +2263,7 @@
         <v>33</v>
       </c>
       <c r="B153" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C153">
         <v>8.9151945999999995</v>
@@ -2274,7 +2274,7 @@
         <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C154">
         <v>8.9151945999999995</v>
@@ -2282,13 +2282,13 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B155" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C155">
-        <v>8.9151945999999995</v>
+        <v>10239.234599179999</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -2296,7 +2296,7 @@
         <v>34</v>
       </c>
       <c r="B156" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C156">
         <v>10239.234599179999</v>
@@ -2307,7 +2307,7 @@
         <v>34</v>
       </c>
       <c r="B157" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C157">
         <v>10239.234599179999</v>
@@ -2318,7 +2318,7 @@
         <v>34</v>
       </c>
       <c r="B158" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C158">
         <v>10239.234599179999</v>
@@ -2329,7 +2329,7 @@
         <v>34</v>
       </c>
       <c r="B159" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C159">
         <v>10239.234599179999</v>
@@ -2337,13 +2337,13 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B160" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C160">
-        <v>10239.234599179999</v>
+        <v>147.66224518000001</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -2351,7 +2351,7 @@
         <v>35</v>
       </c>
       <c r="B161" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C161">
         <v>147.66224518000001</v>
@@ -2362,7 +2362,7 @@
         <v>35</v>
       </c>
       <c r="B162" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C162">
         <v>147.66224518000001</v>
@@ -2373,7 +2373,7 @@
         <v>35</v>
       </c>
       <c r="B163" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C163">
         <v>147.66224518000001</v>
@@ -2384,7 +2384,7 @@
         <v>35</v>
       </c>
       <c r="B164" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C164">
         <v>147.66224518000001</v>
@@ -2392,13 +2392,13 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B165" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C165">
-        <v>147.66224518000001</v>
+        <v>676.80778461</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -2406,7 +2406,7 @@
         <v>36</v>
       </c>
       <c r="B166" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C166">
         <v>676.80778461</v>
@@ -2417,7 +2417,7 @@
         <v>36</v>
       </c>
       <c r="B167" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C167">
         <v>676.80778461</v>
@@ -2428,7 +2428,7 @@
         <v>36</v>
       </c>
       <c r="B168" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C168">
         <v>676.80778461</v>
@@ -2439,7 +2439,7 @@
         <v>36</v>
       </c>
       <c r="B169" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C169">
         <v>676.80778461</v>
@@ -2447,13 +2447,13 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B170" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C170">
-        <v>676.80778461</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,7 +2461,7 @@
         <v>37</v>
       </c>
       <c r="B171" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C171">
         <v>29.7</v>
@@ -2472,7 +2472,7 @@
         <v>37</v>
       </c>
       <c r="B172" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C172">
         <v>29.7</v>
@@ -2483,7 +2483,7 @@
         <v>37</v>
       </c>
       <c r="B173" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C173">
         <v>29.7</v>
@@ -2494,7 +2494,7 @@
         <v>37</v>
       </c>
       <c r="B174" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C174">
         <v>29.7</v>
@@ -2502,10 +2502,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B175" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C175">
         <v>29.7</v>
@@ -2516,7 +2516,7 @@
         <v>38</v>
       </c>
       <c r="B176" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C176">
         <v>29.7</v>
@@ -2527,7 +2527,7 @@
         <v>38</v>
       </c>
       <c r="B177" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C177">
         <v>29.7</v>
@@ -2538,7 +2538,7 @@
         <v>38</v>
       </c>
       <c r="B178" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C178">
         <v>29.7</v>
@@ -2549,7 +2549,7 @@
         <v>38</v>
       </c>
       <c r="B179" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C179">
         <v>29.7</v>
@@ -2560,7 +2560,7 @@
         <v>38</v>
       </c>
       <c r="B180" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C180">
         <v>29.7</v>
@@ -2568,13 +2568,13 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B181" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C181">
-        <v>29.7</v>
+        <v>12.18322764</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -2582,7 +2582,7 @@
         <v>39</v>
       </c>
       <c r="B182" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C182">
         <v>12.18322764</v>
@@ -2593,7 +2593,7 @@
         <v>39</v>
       </c>
       <c r="B183" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C183">
         <v>12.18322764</v>
@@ -2604,7 +2604,7 @@
         <v>39</v>
       </c>
       <c r="B184" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C184">
         <v>12.18322764</v>
@@ -2615,7 +2615,7 @@
         <v>39</v>
       </c>
       <c r="B185" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C185">
         <v>12.18322764</v>
@@ -2623,13 +2623,13 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B186" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C186">
-        <v>12.18322764</v>
+        <v>28.5</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2637,7 +2637,7 @@
         <v>40</v>
       </c>
       <c r="B187" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C187">
         <v>28.5</v>
@@ -2648,7 +2648,7 @@
         <v>40</v>
       </c>
       <c r="B188" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C188">
         <v>28.5</v>
@@ -2659,7 +2659,7 @@
         <v>40</v>
       </c>
       <c r="B189" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C189">
         <v>28.5</v>
@@ -2670,7 +2670,7 @@
         <v>40</v>
       </c>
       <c r="B190" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C190">
         <v>28.5</v>
@@ -2678,13 +2678,13 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B191" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C191">
-        <v>28.5</v>
+        <v>1728.47068126</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -2692,7 +2692,7 @@
         <v>41</v>
       </c>
       <c r="B192" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C192">
         <v>1728.47068126</v>
@@ -2703,7 +2703,7 @@
         <v>41</v>
       </c>
       <c r="B193" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C193">
         <v>1728.47068126</v>
@@ -2714,7 +2714,7 @@
         <v>41</v>
       </c>
       <c r="B194" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C194">
         <v>1728.47068126</v>
@@ -2725,7 +2725,7 @@
         <v>41</v>
       </c>
       <c r="B195" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C195">
         <v>1728.47068126</v>
@@ -2733,13 +2733,13 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B196" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C196">
-        <v>1728.47068126</v>
+        <v>6625.7804207700001</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -2747,7 +2747,7 @@
         <v>42</v>
       </c>
       <c r="B197" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C197">
         <v>6625.7804207700001</v>
@@ -2758,7 +2758,7 @@
         <v>42</v>
       </c>
       <c r="B198" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C198">
         <v>6625.7804207700001</v>
@@ -2769,7 +2769,7 @@
         <v>42</v>
       </c>
       <c r="B199" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C199">
         <v>6625.7804207700001</v>
@@ -2780,7 +2780,7 @@
         <v>42</v>
       </c>
       <c r="B200" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C200">
         <v>6625.7804207700001</v>
@@ -2788,13 +2788,13 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B201" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C201">
-        <v>6625.7804207700001</v>
+        <v>4662.9369943800002</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -2802,7 +2802,7 @@
         <v>43</v>
       </c>
       <c r="B202" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C202">
         <v>4662.9369943800002</v>
@@ -2813,7 +2813,7 @@
         <v>43</v>
       </c>
       <c r="B203" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C203">
         <v>4662.9369943800002</v>
@@ -2824,7 +2824,7 @@
         <v>43</v>
       </c>
       <c r="B204" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C204">
         <v>4662.9369943800002</v>
@@ -2835,7 +2835,7 @@
         <v>43</v>
       </c>
       <c r="B205" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C205">
         <v>4662.9369943800002</v>
@@ -2843,13 +2843,13 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B206" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C206">
-        <v>4662.9369943800002</v>
+        <v>12397.60343847</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -2857,7 +2857,7 @@
         <v>44</v>
       </c>
       <c r="B207" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C207">
         <v>12397.60343847</v>
@@ -2868,7 +2868,7 @@
         <v>44</v>
       </c>
       <c r="B208" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C208">
         <v>12397.60343847</v>
@@ -2879,7 +2879,7 @@
         <v>44</v>
       </c>
       <c r="B209" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C209">
         <v>12397.60343847</v>
@@ -2890,7 +2890,7 @@
         <v>44</v>
       </c>
       <c r="B210" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C210">
         <v>12397.60343847</v>
@@ -2898,24 +2898,24 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B211" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C211">
-        <v>12397.60343847</v>
+        <v>-10.8</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B212" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C212">
-        <v>-10.8</v>
+        <v>16069.99763401</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -2923,7 +2923,7 @@
         <v>46</v>
       </c>
       <c r="B213" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C213">
         <v>16069.99763401</v>
@@ -2934,7 +2934,7 @@
         <v>46</v>
       </c>
       <c r="B214" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C214">
         <v>16069.99763401</v>
@@ -2945,7 +2945,7 @@
         <v>46</v>
       </c>
       <c r="B215" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C215">
         <v>16069.99763401</v>
@@ -2956,7 +2956,7 @@
         <v>46</v>
       </c>
       <c r="B216" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C216">
         <v>16069.99763401</v>
@@ -2964,24 +2964,24 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B217" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C217">
-        <v>16069.99763401</v>
+        <v>8546.7045304599997</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B218" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C218">
-        <v>8546.7045304599997</v>
+        <v>23506.819993159999</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -2989,7 +2989,7 @@
         <v>48</v>
       </c>
       <c r="B219" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C219">
         <v>23506.819993159999</v>
@@ -3000,7 +3000,7 @@
         <v>48</v>
       </c>
       <c r="B220" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C220">
         <v>23506.819993159999</v>
@@ -3011,7 +3011,7 @@
         <v>48</v>
       </c>
       <c r="B221" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C221">
         <v>23506.819993159999</v>
@@ -3022,7 +3022,7 @@
         <v>48</v>
       </c>
       <c r="B222" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C222">
         <v>23506.819993159999</v>
@@ -3030,23 +3030,12 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B223" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C223">
-        <v>23506.819993159999</v>
-      </c>
-    </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A224" t="s">
-        <v>49</v>
-      </c>
-      <c r="B224" t="s">
-        <v>53</v>
-      </c>
-      <c r="C224">
         <v>4.5</v>
       </c>
     </row>

--- a/premise_gwp/data/lcia_gwp_100a_w_bio.xlsx
+++ b/premise_gwp/data/lcia_gwp_100a_w_bio.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise_gwp/premise_gwp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61143247-7915-6542-BE97-38EA33AB56BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62947124-C81A-D04B-B8E2-0455CC0D7474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="13500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" calcMode="manual"/>
+  <calcPr calcId="162913" calcMode="manual" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -576,8 +576,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C223"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A170" workbookViewId="0">
+      <selection activeCell="B181" sqref="B181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2629,7 +2629,7 @@
         <v>55</v>
       </c>
       <c r="C186">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -2640,7 +2640,7 @@
         <v>51</v>
       </c>
       <c r="C187">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -2651,7 +2651,7 @@
         <v>52</v>
       </c>
       <c r="C188">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -2662,7 +2662,7 @@
         <v>53</v>
       </c>
       <c r="C189">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -2673,7 +2673,7 @@
         <v>54</v>
       </c>
       <c r="C190">
-        <v>28.5</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
